--- a/Sistema embebido/modelo/Confusion Matrix.xlsx
+++ b/Sistema embebido/modelo/Confusion Matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESPOL\Tesis\prueba_opencv\Sistema embebido\modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF080042-9A00-4E37-9094-AEFD035A41AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1543F2-0871-4465-BCD7-56A026049E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{808856C7-EDEF-4187-A4F4-C519A3C79F27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Negative</t>
   </si>
@@ -235,12 +235,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -248,35 +266,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -879,7 +876,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1691,7 +1688,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1749,7 +1746,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -1790,7 +1787,758 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12668917098290469"/>
+          <c:y val="7.2377450980392152E-2"/>
+          <c:w val="0.84159501212538546"/>
+          <c:h val="0.79988420565076424"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74193548387096775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83870967741935487</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95161290322580649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70967741935483875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D92C-459D-9A81-86B05D0ACD56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.70930232558139539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58139534883720934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63953488372093026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72093023255813948</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58139534883720934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46511627906976744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D92C-459D-9A81-86B05D0ACD56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.71764705882352942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69696969696969702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71232876712328763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73750000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70967741935483875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67391304347826086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D92C-459D-9A81-86B05D0ACD56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Model 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Model 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Model 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Model 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Model 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Model 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.82993197278911557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77037037037037048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83098591549295775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70967741935483886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57407407407407418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D92C-459D-9A81-86B05D0ACD56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-20"/>
+        <c:axId val="603764287"/>
+        <c:axId val="603788831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="603764287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603788831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="603788831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603764287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -1933,6 +2681,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
   <cs:axisTitle>
@@ -2999,20 +3787,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>8464</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>186265</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>110066</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>364065</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3039,16 +4323,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313266</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:rowOff>101601</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3068,6 +4352,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>313268</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264A9380-311B-B9C4-AA92-3E1B39A33567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3373,10 +4693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5267DAA7-9D5B-49A2-85D1-73BA216896C4}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3392,349 +4712,394 @@
     <col min="11" max="11" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="10" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="15"/>
+      <c r="N1" s="19"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24</v>
       </c>
       <c r="B3">
         <v>62</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>24</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>20</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="6">
         <v>21</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>3</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>21</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="5">
         <v>6</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="5">
         <v>18</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="6">
         <v>9</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="6">
         <v>15</v>
       </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>61</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="5">
         <v>16</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>46</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="6">
         <v>10</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="6">
         <v>52</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>59</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <v>18</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="5">
         <v>44</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="6">
         <v>31</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="6">
         <v>31</v>
       </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+    <row r="5" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="19"/>
     </row>
-    <row r="6" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <f>D4/SUM(C4:D4)</f>
         <v>0.9838709677419355</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="13">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
         <f>F4/SUM(E4:F4)</f>
         <v>0.74193548387096775</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="18">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13">
         <f>H4/SUM(G4:H4)</f>
         <v>0.83870967741935487</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="8">
+      <c r="H6" s="14"/>
+      <c r="I6" s="9">
         <f>J4/SUM(I4:J4)</f>
         <v>0.95161290322580649</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="13">
+      <c r="J6" s="10"/>
+      <c r="K6" s="11">
         <f>L4/SUM(K4:L4)</f>
         <v>0.70967741935483875</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="18">
+      <c r="L6" s="12"/>
+      <c r="M6" s="13">
         <f>N4/SUM(M4:N4)</f>
         <v>0.5</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <f>SUM(C3,D4)/SUM(C3:D4)</f>
         <v>0.70930232558139539</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
         <f>SUM(E3,F4)/SUM(E3:F4)</f>
         <v>0.58139534883720934</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="18">
+      <c r="F7" s="12"/>
+      <c r="G7" s="13">
         <f>SUM(G3,H4)/SUM(G3:H4)</f>
         <v>0.63953488372093026</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="8">
+      <c r="H7" s="14"/>
+      <c r="I7" s="9">
         <f>SUM(I3,J4)/SUM(I3:J4)</f>
         <v>0.72093023255813948</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="13">
+      <c r="J7" s="10"/>
+      <c r="K7" s="11">
         <f>SUM(K3,L4)/SUM(K3:L4)</f>
         <v>0.58139534883720934</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="18">
+      <c r="L7" s="12"/>
+      <c r="M7" s="13">
         <f>SUM(M3,N4)/SUM(M3:N4)</f>
         <v>0.46511627906976744</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <f>D4/SUM(D3:D4)</f>
         <v>0.71764705882352942</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="13">
+      <c r="D8" s="10"/>
+      <c r="E8" s="11">
         <f>F4/SUM(F3:F4)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="18">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13">
         <f>H4/SUM(H3:H4)</f>
         <v>0.71232876712328763</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="8">
+      <c r="H8" s="14"/>
+      <c r="I8" s="9">
         <f>J4/SUM(J3:J4)</f>
         <v>0.73750000000000004</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="13">
+      <c r="J8" s="10"/>
+      <c r="K8" s="11">
         <f>L4/SUM(L3:L4)</f>
         <v>0.70967741935483875</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="18">
+      <c r="L8" s="12"/>
+      <c r="M8" s="13">
         <f>N4/SUM(N3:N4)</f>
         <v>0.67391304347826086</v>
       </c>
-      <c r="N8" s="19"/>
+      <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <f xml:space="preserve"> 2 * ((C8*C6)/(C8+C6))</f>
         <v>0.82993197278911557</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
         <f xml:space="preserve"> 2 * ((E8*E6)/(E8+E6))</f>
         <v>0.71875</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="18">
+      <c r="F9" s="12"/>
+      <c r="G9" s="13">
         <f xml:space="preserve"> 2 * ((G8*G6)/(G8+G6))</f>
         <v>0.77037037037037048</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="8">
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
         <f xml:space="preserve"> 2 * ((I8*I6)/(I8+I6))</f>
         <v>0.83098591549295775</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="13">
+      <c r="J9" s="10"/>
+      <c r="K9" s="11">
         <f xml:space="preserve"> 2 * ((K8*K6)/(K8+K6))</f>
         <v>0.70967741935483886</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="18">
+      <c r="L9" s="12"/>
+      <c r="M9" s="13">
         <f xml:space="preserve"> 2 * ((M8*M6)/(M8+M6))</f>
         <v>0.57407407407407418</v>
       </c>
-      <c r="N9" s="19"/>
+      <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="21" t="s">
+    <row r="10" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20" t="s">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="20"/>
+      <c r="N11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="43">
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
@@ -3751,27 +5116,6 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
